--- a/Output/FinalResult.xlsx
+++ b/Output/FinalResult.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <x:si>
     <x:t>Invoice Number</x:t>
   </x:si>
@@ -66,6 +66,9 @@
   </x:si>
   <x:si>
     <x:t>1234.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123</x:t>
   </x:si>
   <x:si>
     <x:t>Key,Value
@@ -81,6 +84,10 @@
 "Country","United States"
 "State / County / Province","North Carolina"
 "Zip Postal Code","27610"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Key,Value
+"Address Line 1","123"</x:t>
   </x:si>
   <x:si>
     <x:t>Description</x:t>
@@ -139,8 +146,32 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="14">
+  <x:cellStyleXfs count="22">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -572,6 +603,40 @@
         <x:v>9</x:v>
       </x:c>
     </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -619,7 +684,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D2" s="2" t="s">
         <x:v>8</x:v>
@@ -636,7 +701,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
         <x:v>13</x:v>
@@ -653,12 +718,46 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E4" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
@@ -686,24 +785,24 @@
   <x:sheetData>
     <x:row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A1" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D1" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
         <x:v>8</x:v>
@@ -714,10 +813,10 @@
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
         <x:v>13</x:v>
@@ -728,16 +827,44 @@
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
         <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="A5" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="A6" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -764,24 +891,24 @@
   <x:sheetData>
     <x:row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A1" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D1" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
         <x:v>8</x:v>
@@ -792,10 +919,10 @@
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
         <x:v>13</x:v>
@@ -806,16 +933,44 @@
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
         <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="A5" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="A6" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
